--- a/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
+++ b/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">On track</t>
+    <t xml:space="preserve">Not on track</t>
   </si>
   <si>
     <t xml:space="preserve">Updated</t>
@@ -362,8 +362,8 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -606,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
+++ b/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve">Indigenous student attendance rates (per cent) Year 1 to 10 combined and jurisdiction, Semester 1 2016</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Measure</t>
   </si>
   <si>
-    <t xml:space="preserve">Close the gap between Indigenous and non‑Indigenous school attendance within five years from 2014</t>
+    <t xml:space="preserve">Close the gap between Indigenous and non‑Indigenous school attendance within five years (by 2018)</t>
   </si>
   <si>
     <t xml:space="preserve">Short title</t>
@@ -92,22 +92,54 @@
     <t xml:space="preserve">In May 2014, COAG agreed to a new target to close the gap between Indigenous and non-Indigenous school attendance within five years.</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2016, the attendance rate for Indigenous students was 83.4 per cent, almost 10 percentage points lower than the comparable rate for non-Indigenous students (93.1 per cent). While this is a sizeable gap, on any given school day the vast majority of Indigenous students are attending school.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There has been negligible change in the rate of school attendance for Aboriginal and Torres Strait Islander children from 2014 (83.5 per cent) to 2016 (83.4 per cent).</t>
+    <t xml:space="preserve">In Semester 1 2016, the attendance rate for Indigenous students was 83.4 per cent, almost 10 percentage points lower than the comparable rate for non-Indigenous students (93.1 per cent). While this is a sizeable gap, on any given school day the vast majority of Indigenous students are attending school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There has been negligible change in the rate of school attendance for Aboriginal and Torres Strait Islander children from Semester 1 2014 (83.5 per cent) to Semester 1 2016 (83.4 per cent).</t>
   </si>
   <si>
     <t xml:space="preserve">There was also little change in the rate of attendance for Aboriginal and Torres Strait Islander students from 2014 to 2016 by state and territory. All of the changes were less than one percentage point, apart from the Northern Territory (1.6 percentage point decrease). No jurisdictions were on track for this target in 2016. </t>
   </si>
   <si>
+    <t xml:space="preserve">Progress will need to accelerate if the target is to be met.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">From the 2014 school year onwards, nationally comparable student attendance data has been collected, as set out in the National Standards for Student Attendance Data Reporting (including NSW government schools from 2016) (ACARA).</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">From the 2014 school year onwards, nationally comparable student attendance data has been collected, as set out in the National Standards for Student Attendance Data Reporting  (from Australian Curriculum Assessment and Reporting Authority, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Corbel"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://www.acara.edu.au/reporting/reporting.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). New South Wales government school attendance data are not yet comparable with national data; comparisons with other jurisdictions and over time should be made with caution.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">The Indigenous attendance rate was counted as being on track if the attendance rate (rounded to a whole number) was equal or greater than the agreed trajectory point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourced from: Australian Curriculum, Assessment and Reporting Authority.</t>
   </si>
 </sst>
 </file>
@@ -119,32 +151,27 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="11">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -162,8 +189,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00000A"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -173,13 +200,8 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Corbel"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00000A"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Corbel"/>
       <family val="1"/>
     </font>
@@ -232,17 +254,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,7 +276,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,7 +284,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,15 +292,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,7 +304,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?&#10;&#10;|&#10;&#10;• To accept the correction, click Yes.&#10;• To close this message and correct the formula yourself, click No. 16 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -363,14 +377,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="1" sqref="B10:B12 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.219387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,20 +618,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -649,49 +663,62 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
+    <row r="8" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="86.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="http://www.acara.edu.au/reporting/reporting.html"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
+++ b/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t xml:space="preserve">Indigenous student attendance rates (per cent) Year 1 to 10 combined and jurisdiction, Semester 1 2016</t>
   </si>
@@ -107,39 +107,16 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">From the 2014 school year onwards, nationally comparable student attendance data has been collected, as set out in the National Standards for Student Attendance Data Reporting  (from Australian Curriculum Assessment and Reporting Authority, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Corbel"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://www.acara.edu.au/reporting/reporting.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">). New South Wales government school attendance data are not yet comparable with national data; comparisons with other jurisdictions and over time should be made with caution.</t>
-    </r>
+    <t xml:space="preserve">From the 2014 school year onwards, nationally comparable student attendance data has been collected, as set out in the National Standards for Student Attendance Data Reporting  (from Australian Curriculum Assessment and Reporting Authority, http://www.acara.edu.au/reporting/reporting.html). New South Wales government school attendance data are not yet comparable with national data; comparisons with other jurisdictions and over time should be made with caution.</t>
   </si>
   <si>
     <t xml:space="preserve">The Indigenous attendance rate was counted as being on track if the attendance rate (rounded to a whole number) was equal or greater than the agreed trajectory point.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sourced from: Australian Curriculum, Assessment and Reporting Authority.</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Curriculum, Assessment and Reporting Authority.</t>
   </si>
 </sst>
 </file>
@@ -151,7 +128,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -172,6 +149,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,28 +256,80 @@
       <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Corbel"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -230,7 +340,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,6 +364,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,19 +422,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,7 +442,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,34 +450,50 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -331,7 +505,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -347,7 +521,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -376,15 +550,15 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="1" sqref="B10:B12 A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,15 +794,15 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="86.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -708,14 +882,14 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="http://www.acara.edu.au/reporting/reporting.html"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
